--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,475 +74,487 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.982+/-0.002</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.983+/-0.002</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.979+/-0.014</t>
+  </si>
+  <si>
+    <t>0.736+/-0.017</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.987+/-0.018</t>
+  </si>
+  <si>
+    <t>0.866+/-0.023</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673+/-0.002</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.637+/-0.002</t>
+  </si>
+  <si>
+    <t>0.636+/-0.014</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.804+/-0.001</t>
+  </si>
+  <si>
+    <t>0.803+/-0.013</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.177+/-0.019</t>
+  </si>
+  <si>
+    <t>0.652+/-0.001</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.618+/-0.002</t>
+  </si>
+  <si>
+    <t>0.617+/-0.012</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.794+/-0.006</t>
+  </si>
+  <si>
+    <t>0.792+/-0.02</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.632+/-0.001</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.625+/-0.001</t>
+  </si>
+  <si>
+    <t>0.625+/-0.016</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>0.659+/-0.003</t>
+  </si>
+  <si>
+    <t>0.657+/-0.021</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803+/-0.001</t>
+  </si>
+  <si>
+    <t>0.767+/-0.0</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.784+/-0.011</t>
+  </si>
+  <si>
+    <t>0.749+/-0.013</t>
+  </si>
+  <si>
+    <t>0.837+/-0.021</t>
+  </si>
+  <si>
+    <t>0.803+/-0.029</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>5.333+/-0.829</t>
+  </si>
+  <si>
+    <t>0.816+/-0.005</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.791+/-0.012</t>
+  </si>
+  <si>
+    <t>0.722+/-0.011</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.86+/-0.016</t>
+  </si>
+  <si>
+    <t>0.787+/-0.031</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.153+/-0.013</t>
+  </si>
+  <si>
+    <t>0.804+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.0</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>0.778+/-0.008</t>
+  </si>
+  <si>
+    <t>0.719+/-0.013</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.851+/-0.016</t>
+  </si>
+  <si>
+    <t>0.79+/-0.027</t>
   </si>
   <si>
     <t>0.723</t>
   </si>
   <si>
-    <t>0.985+/-0.015</t>
-  </si>
-  <si>
-    <t>0.742+/-0.014</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.98+/-0.019</t>
-  </si>
-  <si>
-    <t>0.864+/-0.018</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.673+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.638+/-0.002</t>
-  </si>
-  <si>
-    <t>0.637+/-0.014</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.804+/-0.002</t>
-  </si>
-  <si>
-    <t>0.803+/-0.013</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.084+/-0.006</t>
-  </si>
-  <si>
-    <t>0.66+/-0.002</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.626+/-0.002</t>
-  </si>
-  <si>
-    <t>0.625+/-0.012</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.796+/-0.004</t>
-  </si>
-  <si>
-    <t>0.795+/-0.023</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.642+/-0.002</t>
-  </si>
-  <si>
-    <t>0.641+/-0.0</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.629+/-0.001</t>
-  </si>
-  <si>
-    <t>0.628+/-0.015</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.691+/-0.005</t>
-  </si>
-  <si>
-    <t>0.689+/-0.024</t>
-  </si>
-  <si>
-    <t>0.686</t>
+    <t>0.213+/-0.01</t>
+  </si>
+  <si>
+    <t>0.749+/-0.002</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.707+/-0.002</t>
+  </si>
+  <si>
+    <t>0.693+/-0.011</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.851+/-0.002</t>
+  </si>
+  <si>
+    <t>0.835+/-0.012</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>62.724+/-5.623</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.987+/-0.0</t>
+  </si>
+  <si>
+    <t>0.833+/-0.0</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.775+/-0.01</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.974+/-0.001</t>
+  </si>
+  <si>
+    <t>0.941+/-0.009</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.071+/-0.011</t>
+  </si>
+  <si>
+    <t>0.636+/-0.002</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.652+/-0.002</t>
+  </si>
+  <si>
+    <t>0.651+/-0.018</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.584+/-0.002</t>
+  </si>
+  <si>
+    <t>0.584+/-0.019</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.072+/-0.009</t>
+  </si>
+  <si>
+    <t>0.607+/-0.005</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.618+/-0.006</t>
+  </si>
+  <si>
+    <t>0.616+/-0.015</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.559+/-0.006</t>
+  </si>
+  <si>
+    <t>0.56+/-0.026</t>
+  </si>
+  <si>
+    <t>0.582</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.8+/-0.005</t>
-  </si>
-  <si>
-    <t>0.769+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.788+/-0.016</t>
-  </si>
-  <si>
-    <t>0.759+/-0.015</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.82+/-0.035</t>
-  </si>
-  <si>
-    <t>0.79+/-0.045</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>4.654+/-1.262</t>
-  </si>
-  <si>
-    <t>0.817+/-0.006</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.793+/-0.008</t>
-  </si>
-  <si>
-    <t>0.723+/-0.017</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.858+/-0.015</t>
-  </si>
-  <si>
-    <t>0.779+/-0.017</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.12+/-0.009</t>
-  </si>
-  <si>
-    <t>0.807+/-0.008</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.783+/-0.011</t>
-  </si>
-  <si>
-    <t>0.72+/-0.02</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.85+/-0.018</t>
-  </si>
-  <si>
-    <t>0.783+/-0.022</t>
-  </si>
-  <si>
-    <t>0.168+/-0.008</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.707+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.01</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.859+/-0.002</t>
-  </si>
-  <si>
-    <t>0.843+/-0.018</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>51.272+/-6.898</t>
-  </si>
-  <si>
-    <t>0.988+/-0.0</t>
-  </si>
-  <si>
-    <t>0.828+/-0.0</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766+/-0.008</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.976+/-0.0</t>
-  </si>
-  <si>
-    <t>0.945+/-0.009</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.083+/-0.013</t>
-  </si>
-  <si>
-    <t>0.637+/-0.002</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.654+/-0.002</t>
-  </si>
-  <si>
-    <t>0.654+/-0.02</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.58+/-0.018</t>
-  </si>
-  <si>
-    <t>0.112+/-0.033</t>
-  </si>
-  <si>
-    <t>0.591+/-0.006</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.59+/-0.007</t>
-  </si>
-  <si>
-    <t>0.59+/-0.013</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.594+/-0.009</t>
-  </si>
-  <si>
-    <t>0.595+/-0.017</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.013+/-0.005</t>
-  </si>
-  <si>
-    <t>0.579+/-0.001</t>
+    <t>0.58+/-0.002</t>
   </si>
   <si>
     <t>0.579+/-0.0</t>
   </si>
   <si>
-    <t>0.589</t>
-  </si>
-  <si>
     <t>0.58+/-0.001</t>
   </si>
   <si>
-    <t>0.58+/-0.011</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.571+/-0.003</t>
-  </si>
-  <si>
-    <t>0.572+/-0.015</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.016+/-0.004</t>
-  </si>
-  <si>
-    <t>0.814+/-0.007</t>
-  </si>
-  <si>
-    <t>0.789+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.824+/-0.013</t>
-  </si>
-  <si>
-    <t>0.798+/-0.017</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.798+/-0.03</t>
-  </si>
-  <si>
-    <t>0.774+/-0.038</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>8.062+/-2.227</t>
-  </si>
-  <si>
-    <t>0.847+/-0.004</t>
+    <t>0.58+/-0.015</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.578+/-0.004</t>
+  </si>
+  <si>
+    <t>0.576+/-0.02</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.009</t>
   </si>
   <si>
     <t>0.781+/-0.0</t>
   </si>
   <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.849+/-0.013</t>
-  </si>
-  <si>
-    <t>0.781+/-0.016</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.844+/-0.014</t>
-  </si>
-  <si>
-    <t>0.781+/-0.027</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.197+/-0.017</t>
-  </si>
-  <si>
-    <t>0.83+/-0.005</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.838+/-0.014</t>
-  </si>
-  <si>
-    <t>0.779+/-0.014</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.818+/-0.023</t>
-  </si>
-  <si>
-    <t>0.767+/-0.03</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.269+/-0.018</t>
-  </si>
-  <si>
-    <t>0.778+/-0.001</t>
-  </si>
-  <si>
-    <t>0.766+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.831+/-0.002</t>
-  </si>
-  <si>
-    <t>0.817+/-0.011</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.698+/-0.002</t>
-  </si>
-  <si>
-    <t>0.687+/-0.015</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>114.216+/-7.397</t>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.818+/-0.017</t>
+  </si>
+  <si>
+    <t>0.792+/-0.025</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.786+/-0.03</t>
+  </si>
+  <si>
+    <t>0.765+/-0.031</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>27.094+/-24.58</t>
+  </si>
+  <si>
+    <t>0.841+/-0.005</t>
+  </si>
+  <si>
+    <t>0.779+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852+/-0.01</t>
+  </si>
+  <si>
+    <t>0.785+/-0.014</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.825+/-0.013</t>
+  </si>
+  <si>
+    <t>0.771+/-0.019</t>
+  </si>
+  <si>
+    <t>0.264+/-0.027</t>
+  </si>
+  <si>
+    <t>0.829+/-0.005</t>
+  </si>
+  <si>
+    <t>0.774+/-0.0</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.845+/-0.014</t>
+  </si>
+  <si>
+    <t>0.784+/-0.017</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.806+/-0.018</t>
+  </si>
+  <si>
+    <t>0.757+/-0.022</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.351+/-0.041</t>
+  </si>
+  <si>
+    <t>0.773+/-0.001</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826+/-0.002</t>
+  </si>
+  <si>
+    <t>0.811+/-0.012</t>
+  </si>
+  <si>
+    <t>0.69+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679+/-0.016</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>137.15+/-19.487</t>
   </si>
 </sst>
 </file>
@@ -943,28 +955,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -972,31 +984,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1004,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1036,31 +1048,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1068,31 +1080,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1100,31 +1112,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1132,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1164,31 +1176,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1196,31 +1208,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1228,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>107</v>
@@ -1317,16 +1329,16 @@
         <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1334,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>108</v>
@@ -1349,16 +1361,16 @@
         <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1366,10 +1378,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
@@ -1378,19 +1390,19 @@
         <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1398,10 +1410,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
@@ -1410,19 +1422,19 @@
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1430,10 +1442,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -1442,19 +1454,19 @@
         <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1462,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>121</v>
@@ -1474,19 +1486,19 @@
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1494,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>122</v>
@@ -1506,19 +1518,19 @@
         <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1526,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
         <v>123</v>
@@ -1538,19 +1550,19 @@
         <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1558,10 +1570,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>124</v>
@@ -1570,19 +1582,19 @@
         <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>170</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1590,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -1602,19 +1614,19 @@
         <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
